--- a/ApolloQA/Data/RatingManual/SC/VA00060.IncreasedSplitLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00060.IncreasedSplitLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.IncreasedSplitLimitFactors" sheetId="1" r:id="Rc1bca6ced1894ca4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.IncreasedSplitLimitFactors" sheetId="1" r:id="Rcc737e2b3f9b474c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2412,6 +2412,23 @@
         <x:v>Livery - Standard</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5159</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
@@ -3340,6 +3357,23 @@
       </x:c>
       <x:c t="str">
         <x:v>1.2746</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Livery - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3389</x:v>
       </x:c>
     </x:row>
     <x:row>
